--- a/Étel lista.xlsx
+++ b/Étel lista.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13c-pongracz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Saját meghajtó\Vizsgaremek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCD7A896-4F73-42DE-BFCB-804E5AA6FD33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1B8D5B-9FAC-4061-9B1B-90C39F825ADC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7882C499-AA6B-4843-9FCE-FD484EF25E37}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,9 +709,9 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -725,7 +725,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -736,10 +736,10 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -753,7 +753,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -764,10 +764,10 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -780,8 +780,8 @@
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -809,7 +809,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -821,8 +821,8 @@
       <c r="E19" s="2"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -837,7 +837,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -851,7 +851,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -863,7 +863,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
@@ -879,7 +879,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -891,7 +891,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
@@ -906,8 +906,8 @@
       <c r="F25" s="2"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -920,8 +920,8 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -935,7 +935,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -948,8 +948,8 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
